--- a/biology/Botanique/Eriotheca_globosa/Eriotheca_globosa.xlsx
+++ b/biology/Botanique/Eriotheca_globosa/Eriotheca_globosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriotheca globosa est une espèce de plantes à fleurs de la famille des Malvaceae (anciennement des Bombacaceae). C'est un arbre.
-En Guyane, on l'appelle Bois-coton, Maho coton (Créole), Katoen, Sienzon, Boesie-Katoen, Yankomini (Nenge tongo), Klieklie maoeloe, Kriekrie maroeroe (Kali'na), Matote-Maauw, Maupau (Saramaka), Ronnanalballi (Lokono)[2], Algodão bravo (Portugais), Katatu avayn (Palikur), Pisili amïnïyu (Wayãpi)[3]. Au Venezuela, on l'appelle Asare-yek (Arekuna), Cedro dulce, Murea (espagnol)[4].
+En Guyane, on l'appelle Bois-coton, Maho coton (Créole), Katoen, Sienzon, Boesie-Katoen, Yankomini (Nenge tongo), Klieklie maoeloe, Kriekrie maroeroe (Kali'na), Matote-Maauw, Maupau (Saramaka), Ronnanalballi (Lokono), Algodão bravo (Portugais), Katatu avayn (Palikur), Pisili amïnïyu (Wayãpi). Au Venezuela, on l'appelle Asare-yek (Arekuna), Cedro dulce, Murea (espagnol).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre à feuilles décidues peut atteindre 3-40 m de haut[4]. L'écorce épaisse, profondément crevassée longitudinalement, rappelle celle du Chêne et est très fibreuses dans sa partie interne. Une gomme s'écoule lentement de ses incisions. Le bois blanc et mou (devenant roussâtre par exposition à l'air) est très léger[5]. Les feuilles sont composées palmées, à 4-5 folioles oblongues, mesurant 10-18 cm de long, pour 4,5-6,5 cm de large. Le pétiole est plus court que les folioles. L'inflorescence se compose d'un pédoncule axillaire, long de 1,5-2 cm, portant plusieurs pédicelles longs de 0-2 cm, portant chacun une fleur mesurant 2,5 cm. Le calice comporte 3-5 lobes roussâtres, tomentelleux. Les pétales sont couverts d'une fine pilosité blanches veloutée. Le tube staminal, glabre, est aussi long que le calice. Les étamines portent des anthères réniformes. Le fruit, globuleux glabre, brun jaunâtre, mesure 4 cm de diamètre, et contient une bourre hydrophobe  roussâtres[2]. Les graines sont couvertes d'un kapok roussâtre.
-Le bois de Eriotheca globosa est entièrement beige clair et léger (densité de 0,45 à 0,50) avec 1 à 3 gros vaisseaux par mm (190 à 270 µm de diamètre), fréquemment obstrués par des thylles à parois minces. On y observe aussi des ponctuations intervasculaires d'une taille de 9-10 µm, quelques cristaux isolés très sporadiques, ainsi que de gros canaux axiaux traumatiques sporadiques. Les parenchyme est organisé en chaînettes unisériées régulières et très rapprochées : peu développé dans le parenchyme circum-vasculaire, arrangement en lignes d'un seul rang de cellules alternes avec les rangs de fibres pour le parenchyme circum-médullaire. Les files sont étagées, formées de 4 à 6 éléments. Les rayons sont de structure hétérogène, généralement 3-4-sériés et non étagés, au nombre de 4 à 8 par mm[6],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre à feuilles décidues peut atteindre 3-40 m de haut. L'écorce épaisse, profondément crevassée longitudinalement, rappelle celle du Chêne et est très fibreuses dans sa partie interne. Une gomme s'écoule lentement de ses incisions. Le bois blanc et mou (devenant roussâtre par exposition à l'air) est très léger. Les feuilles sont composées palmées, à 4-5 folioles oblongues, mesurant 10-18 cm de long, pour 4,5-6,5 cm de large. Le pétiole est plus court que les folioles. L'inflorescence se compose d'un pédoncule axillaire, long de 1,5-2 cm, portant plusieurs pédicelles longs de 0-2 cm, portant chacun une fleur mesurant 2,5 cm. Le calice comporte 3-5 lobes roussâtres, tomentelleux. Les pétales sont couverts d'une fine pilosité blanches veloutée. Le tube staminal, glabre, est aussi long que le calice. Les étamines portent des anthères réniformes. Le fruit, globuleux glabre, brun jaunâtre, mesure 4 cm de diamètre, et contient une bourre hydrophobe  roussâtres. Les graines sont couvertes d'un kapok roussâtre.
+Le bois de Eriotheca globosa est entièrement beige clair et léger (densité de 0,45 à 0,50) avec 1 à 3 gros vaisseaux par mm (190 à 270 µm de diamètre), fréquemment obstrués par des thylles à parois minces. On y observe aussi des ponctuations intervasculaires d'une taille de 9-10 µm, quelques cristaux isolés très sporadiques, ainsi que de gros canaux axiaux traumatiques sporadiques. Les parenchyme est organisé en chaînettes unisériées régulières et très rapprochées : peu développé dans le parenchyme circum-vasculaire, arrangement en lignes d'un seul rang de cellules alternes avec les rangs de fibres pour le parenchyme circum-médullaire. Les files sont étagées, formées de 4 à 6 éléments. Les rayons sont de structure hétérogène, généralement 3-4-sériés et non étagés, au nombre de 4 à 8 par mm,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le rencontre dans le bassin amazonien du Venezuela (Delta Amacuro et Bolívar), au Brésil amazonien, en passant par le Guyana, le Suriname, la Guyane et le Pérou amazonien[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le rencontre dans le bassin amazonien du Venezuela (Delta Amacuro et Bolívar), au Brésil amazonien, en passant par le Guyana, le Suriname, la Guyane et le Pérou amazonien.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois léger, de couleur beige clair, peut être utilisé en menuiserie intérieure et en charpenterie après traitement[3],[5].
-Le kapok rougeâtre de Eriotheca globosa est difficile à tisser[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois léger, de couleur beige clair, peut être utilisé en menuiserie intérieure et en charpenterie après traitement,.
+Le kapok rougeâtre de Eriotheca globosa est difficile à tisser.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Eriotheca globosa[8] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante pour Eriotheca globosa : 
 « BOMBAX (glohoſa)  foliis quinatis, emarginatis, fructu globoſo, rureſcente. (Tabula 281.) 
 Arbor trunco inermi, decem-pedali &amp; ampliùs, in ſummitate ramoſo ; ramis rectis &amp; declinatis, hine &amp; indè extenſis. Folia alterna, digitata ; foliolis inæqualibus, quinis, ovatis, obtuſis, apice emarginatis, glabris, integerrimis, ſeſſilibus, longo petiolo adnexis. Stipule binæ, oblongæ, acutæ, decidual. Fructus racemoſi, terminales &amp; axillares, ſunt capſulæ rufeſcentes, quinque ant ſex, ſulcis notatæ a baſi ad apicem, quinque aut ſex-valves, valvulis coriaceis, concavis, deciduis, ſubquinque aut ſex-loculares. Semina numeroſa, ovata, glabra, rufa, nidulantia in tomento goſſypino fulvo. 
 Fructum ferebat Junio. Flores non obſervavi. 
